--- a/sheets/input/Blank_Input.xlsx
+++ b/sheets/input/Blank_Input.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="115">
   <si>
     <t>Number of Hyper-cube bins</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>Attraction Factor 1</t>
-  </si>
-  <si>
-    <t>Phytoplankon</t>
   </si>
 </sst>
 </file>
@@ -1292,16 +1289,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4883,100 +4880,100 @@
       </c>
     </row>
     <row r="35" spans="5:6">
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="79" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="5:6">
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
     </row>
     <row r="37" spans="5:6">
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="81" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="5:6">
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
     </row>
     <row r="39" spans="5:6">
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="81" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="5:6">
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
     </row>
     <row r="41" spans="5:6">
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="81" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="5:6">
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
     </row>
     <row r="43" spans="5:6">
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" spans="5:6">
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
     </row>
     <row r="45" spans="5:6">
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="81" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="5:6">
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
     </row>
     <row r="47" spans="5:6">
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="81" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="5:6">
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
     </row>
     <row r="49" spans="5:6">
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="81" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" s="74" t="s">
@@ -4990,12 +4987,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="E49:E50"/>
@@ -5006,6 +4997,12 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5565,7 +5562,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="L2" s="25"/>
     </row>

--- a/sheets/input/Blank_Input.xlsx
+++ b/sheets/input/Blank_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28360" windowHeight="17540" tabRatio="790" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_and_Time_Input" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
   <si>
     <t>Number of Hyper-cube bins</t>
   </si>
@@ -267,12 +267,6 @@
   </si>
   <si>
     <t>Fraction of Organic Carbon Content in Sediment (only if a organism eats sediment)</t>
-  </si>
-  <si>
-    <t>beta_lip (defualt = 1)</t>
-  </si>
-  <si>
-    <t>beta_prot (defualt = .35)</t>
   </si>
   <si>
     <t>0,10</t>
@@ -383,6 +377,21 @@
   </si>
   <si>
     <t>Attraction Factor 1</t>
+  </si>
+  <si>
+    <t>Non-Lipid organic matter in gut to biotaoctonal proptionality constant (defualt = .035)</t>
+  </si>
+  <si>
+    <t>Lipid organic matter to water octonal proptionality constant (default = 1)</t>
+  </si>
+  <si>
+    <t>Lipid organic matter in gut to biota octonal proptionality constant (default = 1)</t>
+  </si>
+  <si>
+    <t>Non-Lipid organic Carbon in gut to biota octonal proptionality constant (default = .35)</t>
+  </si>
+  <si>
+    <t>Non-Lipid organic matter to water octonal proptionality constant (default = .035)</t>
   </si>
 </sst>
 </file>
@@ -726,8 +735,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="467">
+  <cellStyleXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1289,20 +1306,20 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="467">
+  <cellStyles count="475">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1536,6 +1553,10 @@
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1769,6 +1790,10 @@
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4608,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4616,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4624,7 +4649,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4714,7 +4739,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="18"/>
@@ -4876,117 +4901,123 @@
     </row>
     <row r="34" spans="5:6" ht="17">
       <c r="E34" s="73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="5:6">
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="79" t="s">
+      <c r="F37" s="79" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="81" t="s">
+    <row r="38" spans="5:6">
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F39" s="79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="5:6">
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39" s="81" t="s">
+    <row r="40" spans="5:6">
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F41" s="79" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="5:6">
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-    </row>
-    <row r="41" spans="5:6">
-      <c r="E41" s="81" t="s">
+    <row r="42" spans="5:6">
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F43" s="79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="5:6">
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-    </row>
-    <row r="43" spans="5:6">
-      <c r="E43" s="81" t="s">
+    <row r="44" spans="5:6">
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="E45" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F45" s="79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47" s="79" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-    </row>
-    <row r="45" spans="5:6">
-      <c r="E45" s="81" t="s">
+      <c r="F47" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6">
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-    </row>
-    <row r="47" spans="5:6">
-      <c r="E47" s="81" t="s">
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F49" s="79" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="5:6">
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="81" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="28" customHeight="1">
       <c r="E53" s="74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="E49:E50"/>
@@ -4997,12 +5028,6 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5046,11 +5071,11 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G1" s="13"/>
     </row>
@@ -5077,7 +5102,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="15">
         <v>13</v>
@@ -5108,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5216,9 +5241,11 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="42"/>
+        <v>114</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
       <c r="C6" s="42"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -5234,7 +5261,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="72" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="6"/>
@@ -5252,7 +5279,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="6"/>
@@ -5269,8 +5296,8 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="19" t="s">
-        <v>73</v>
+      <c r="A9" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -5287,7 +5314,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="6"/>
@@ -5304,9 +5331,9 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="43"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="42"/>
       <c r="C11" s="6"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -5320,9 +5347,11 @@
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -5335,9 +5364,11 @@
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="61"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -5351,9 +5382,11 @@
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="23">
       <c r="A15" s="55"/>
@@ -5484,7 +5517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -5911,7 +5944,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="54"/>
     </row>
@@ -5935,13 +5968,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="17"/>
@@ -5958,7 +5991,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="54"/>
     </row>
@@ -5982,13 +6015,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="54"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="54"/>
     </row>
@@ -6614,7 +6647,7 @@
     </row>
     <row r="2" spans="1:540">
       <c r="A2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -7103,13 +7136,13 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>53</v>
@@ -7127,10 +7160,10 @@
     </row>
     <row r="41" spans="1:49">
       <c r="A41" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="46">
         <v>1</v>
@@ -7139,13 +7172,13 @@
         <v>45</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H41" s="17"/>
       <c r="AW41" t="s">

--- a/sheets/input/Blank_Input.xlsx
+++ b/sheets/input/Blank_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_and_Time_Input" sheetId="1" r:id="rId1"/>
@@ -379,19 +379,19 @@
     <t>Attraction Factor 1</t>
   </si>
   <si>
-    <t>Non-Lipid organic matter in gut to biotaoctonal proptionality constant (defualt = .035)</t>
-  </si>
-  <si>
-    <t>Lipid organic matter to water octonal proptionality constant (default = 1)</t>
-  </si>
-  <si>
-    <t>Lipid organic matter in gut to biota octonal proptionality constant (default = 1)</t>
-  </si>
-  <si>
-    <t>Non-Lipid organic Carbon in gut to biota octonal proptionality constant (default = .35)</t>
-  </si>
-  <si>
-    <t>Non-Lipid organic matter to water octonal proptionality constant (default = .035)</t>
+    <t xml:space="preserve"> Beta Lipid Omn (default = 1)</t>
+  </si>
+  <si>
+    <t>Beta Non-lipid OM (defualt = 0.035)</t>
+  </si>
+  <si>
+    <t>Beta Lipid digesta (default = 1)</t>
+  </si>
+  <si>
+    <t>Beta Sediment OC (default = .35)</t>
+  </si>
+  <si>
+    <t>Beta  Non-lipid digesta  (defualt = .035)</t>
   </si>
 </sst>
 </file>
@@ -1306,16 +1306,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4683,7 +4683,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4905,100 +4905,100 @@
       </c>
     </row>
     <row r="35" spans="5:6">
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="79" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="5:6">
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
     </row>
     <row r="37" spans="5:6">
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="81" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="5:6">
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
     </row>
     <row r="39" spans="5:6">
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="81" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="5:6">
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
     </row>
     <row r="41" spans="5:6">
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="81" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="5:6">
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
     </row>
     <row r="43" spans="5:6">
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="81" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="5:6">
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
     </row>
     <row r="45" spans="5:6">
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="81" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="46" spans="5:6">
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
     </row>
     <row r="47" spans="5:6">
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="81" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="5:6">
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
     </row>
     <row r="49" spans="5:6">
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="81" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" s="74" t="s">
@@ -5012,12 +5012,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="E49:E50"/>
@@ -5028,6 +5022,12 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5133,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5241,11 +5241,9 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="42">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -5261,7 +5259,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="6"/>
@@ -5314,7 +5312,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="6"/>
@@ -5517,7 +5515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -6693,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/sheets/input/Blank_Input.xlsx
+++ b/sheets/input/Blank_Input.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample_and_Time_Input" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Regional_Input" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Temp_Input" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Chem_Input" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Chem_Concentrations" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Org_parameters" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Org_diet" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Migratory_data" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sample_Sites" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sample and Time Input" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Regional Input" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Temperature Input" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Chemical Input" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Chemical Concentrations" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Organism Input" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Organism Diet" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Migratory Input" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Sample Sites" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -413,7 +413,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -451,15 +451,19 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
     <font>
@@ -467,6 +471,11 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
     <font>
@@ -504,12 +513,12 @@
       <b val="true"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -522,6 +531,11 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
     <font>
@@ -776,7 +790,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -825,10 +839,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,22 +871,22 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -929,12 +939,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -953,11 +959,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -981,7 +987,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1005,19 +1011,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,11 +1027,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1045,10 +1047,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1077,11 +1075,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1168,9 +1166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1019520</xdr:colOff>
+      <xdr:colOff>1019160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1179,20 +1177,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14045400" y="863280"/>
-          <a:ext cx="9471960" cy="7619760"/>
+          <a:off x="14044680" y="863280"/>
+          <a:ext cx="9471600" cy="7619400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -1649,9 +1645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3255120</xdr:colOff>
+      <xdr:colOff>3254760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1660,20 +1656,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12294360" y="403200"/>
-          <a:ext cx="3085200" cy="570960"/>
+          <a:off x="12295080" y="403200"/>
+          <a:ext cx="3084840" cy="570600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -1750,15 +1744,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12075480" y="177840"/>
+          <a:off x="12076200" y="177840"/>
           <a:ext cx="360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1796,14 +1789,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12075480" y="165240"/>
+          <a:off x="12076200" y="165240"/>
           <a:ext cx="0" cy="1981440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1841,15 +1834,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12075480" y="2159640"/>
+          <a:off x="12076200" y="2159640"/>
           <a:ext cx="360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1876,9 +1868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2332440</xdr:colOff>
+      <xdr:colOff>2332080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1891,8 +1883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16822440" y="10189080"/>
-          <a:ext cx="2332080" cy="736560"/>
+          <a:off x="16823160" y="10189080"/>
+          <a:ext cx="2331720" cy="736200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,19 +1905,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4820760</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:colOff>4820400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12198600" y="2101680"/>
-          <a:ext cx="9444240" cy="4065480"/>
+          <a:off x="12199320" y="2101680"/>
+          <a:ext cx="9443880" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,11 +1929,22 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1959,11 +1962,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1975,6 +1988,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1986,6 +2004,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1997,11 +2020,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2013,11 +2046,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2029,6 +2072,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2040,6 +2088,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2051,6 +2104,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2062,6 +2120,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2079,6 +2142,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2090,6 +2158,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2101,11 +2174,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2117,6 +2200,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2128,6 +2216,11 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -2167,15 +2260,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8699400" y="190440"/>
+          <a:off x="8700480" y="190440"/>
           <a:ext cx="1797840" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2213,14 +2305,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10497240" y="190440"/>
+          <a:off x="10498680" y="190440"/>
           <a:ext cx="360" cy="380880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2258,15 +2350,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8699400" y="562680"/>
+          <a:off x="8700480" y="562680"/>
           <a:ext cx="1797840" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2293,9 +2384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
+      <xdr:colOff>786960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2304,20 +2395,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10854000" y="190440"/>
-          <a:ext cx="3603960" cy="571680"/>
+          <a:off x="10855440" y="190440"/>
+          <a:ext cx="3603600" cy="571320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2403,15 +2492,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8700120" y="1333440"/>
-          <a:ext cx="2931120" cy="0"/>
+          <a:off x="8701200" y="1333440"/>
+          <a:ext cx="2931480" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2438,9 +2526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1133640</xdr:colOff>
+      <xdr:colOff>1133280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2449,626 +2537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699760" y="1523880"/>
-          <a:ext cx="2931480" cy="762120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>To add more time periods copy and paste a column, and paste it to the next columns.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>558720</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12717360" y="4053240"/>
-          <a:ext cx="9089640" cy="3569040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Note:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>There are two different ways of defining Dissolved Concentration of a Chemical in Water (g/L):</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>​ ​ ​ ​ ​ ​ ​ ​</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. You can directly define it by entry into is cell.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. You can define:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>• </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Total Concentration in Water</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Disequilbrium factor of Disolved Organic Carbon (In Regional tab)</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Disequilbrium factor of Particulate Organic Carbon (In Regional tab)</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>• </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>POC–octanol proportionality constant (In Regional tab)</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>• </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>DOC–octanol proportionality constant (In Regional tab)</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>If 2 is used, all variables in the list must be defined.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>If Concentration in Pour Water is unknown, it can be estimated with Concentration in the Sediment.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>If an Organism eats sediment, Concentration in Sediment, and Fraction of Organic Carbon Content in Sediment (In Regional tab)</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>must be defined</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12945600" y="640080"/>
-          <a:ext cx="4076280" cy="950040"/>
+          <a:off x="8700840" y="1523880"/>
+          <a:ext cx="2931480" cy="761760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3106,8 +2576,102 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>T</a:t>
-          </a:r>
+            <a:t>To add more time periods copy and paste a column, and paste it to the next columns.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12718080" y="4053240"/>
+          <a:ext cx="9088560" cy="3568680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Note:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3115,7 +2679,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>o</a:t>
+            <a:t>•</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3124,8 +2688,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>There are two different ways of defining Dissolved Concentration of a Chemical in Water (g/L):</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3133,8 +2707,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>d</a:t>
-          </a:r>
+            <a:t>​ ​ ​ ​ ​ ​ ​ ​</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3142,7 +2726,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>e</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3151,8 +2735,28 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>f</a:t>
-          </a:r>
+            <a:t>1. You can directly define it by entry into is cell.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3160,7 +2764,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>i</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3169,8 +2773,28 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>n</a:t>
-          </a:r>
+            <a:t>2. You can define:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3178,7 +2802,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>e</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3187,7 +2811,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>• </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3196,8 +2820,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>m</a:t>
-          </a:r>
+            <a:t>Total Concentration in Water</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3205,7 +2839,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>u</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3214,7 +2848,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>l</a:t>
+            <a:t>•</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3223,8 +2857,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
+            <a:t>Disequilbrium factor of Disolved Organic Carbon (In Regional tab)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3232,7 +2876,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>i</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3241,7 +2885,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>p</a:t>
+            <a:t>•</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3250,8 +2894,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
+            <a:t>Disequilbrium factor of Particulate Organic Carbon (In Regional tab)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3259,7 +2913,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>e</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3268,7 +2922,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>• </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3277,8 +2931,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>c</a:t>
-          </a:r>
+            <a:t>POC–octanol proportionality constant (In Regional tab)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3286,7 +2950,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>h</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3295,7 +2959,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>e</a:t>
+            <a:t>• </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3304,8 +2968,28 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>m</a:t>
-          </a:r>
+            <a:t>DOC–octanol proportionality constant (In Regional tab)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3313,7 +2997,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>i</a:t>
+            <a:t>	</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3322,8 +3006,28 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>c</a:t>
-          </a:r>
+            <a:t>If 2 is used, all variables in the list must be defined.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3331,7 +3035,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>a</a:t>
+            <a:t>•</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3340,8 +3044,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
+            <a:t>If Concentration in Pour Water is unknown, it can be estimated with Concentration in the Sediment.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3349,7 +3063,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>s</a:t>
+            <a:t>•</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
@@ -3358,8 +3072,18 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>If an Organism eats sediment, Concentration in Sediment, and Fraction of Organic Carbon Content in Sediment (In Regional tab)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3367,8 +3091,98 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>c</a:t>
-          </a:r>
+            <a:t>must be defined</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>169560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12946320" y="640080"/>
+          <a:ext cx="4075920" cy="949680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -3376,736 +3190,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>p</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>y</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>n</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>p</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>c</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>m</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>c</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>w</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>b</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>w</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>m</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>v</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>w</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>u</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>g</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>b</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>w</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>l</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>f</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>.</a:t>
+            <a:t>To define multiple chemicals copy and paste all chemical rows below themselves. (row 1 through 10 below itself).</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -4147,8 +3232,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4175,9 +3259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2755440</xdr:colOff>
+      <xdr:colOff>2755080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4187,19 +3271,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8888040" y="3785760"/>
-          <a:ext cx="5158800" cy="761760"/>
+          <a:ext cx="5159160" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4257,15 +3339,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19349640" y="3164040"/>
+          <a:off x="19350000" y="3164040"/>
           <a:ext cx="0" cy="1394280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4292,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1739880</xdr:colOff>
+      <xdr:colOff>1739520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4303,20 +3384,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19553040" y="3696840"/>
-          <a:ext cx="4332240" cy="342360"/>
+          <a:off x="19553400" y="3696840"/>
+          <a:ext cx="4332960" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4378,9 +3457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5384520</xdr:colOff>
+      <xdr:colOff>5384160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4389,20 +3468,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9214920" y="76320"/>
-          <a:ext cx="5257440" cy="1497960"/>
+          <a:off x="9213840" y="76320"/>
+          <a:ext cx="5257080" cy="1497600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4470,15 +3547,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9087840" y="2108160"/>
+          <a:off x="9086760" y="2108160"/>
           <a:ext cx="825480" cy="10080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4516,14 +3592,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9913320" y="2118240"/>
+          <a:off x="9912240" y="2118240"/>
           <a:ext cx="360" cy="700920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4561,15 +3637,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9087840" y="2819160"/>
+          <a:off x="9086760" y="2819160"/>
           <a:ext cx="825480" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4596,9 +3671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6885000</xdr:colOff>
+      <xdr:colOff>6884640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4607,20 +3682,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10154520" y="2298600"/>
-          <a:ext cx="5818320" cy="659880"/>
+          <a:off x="10153440" y="2298600"/>
+          <a:ext cx="5817960" cy="659520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4683,15 +3756,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10024200" y="393480"/>
+          <a:off x="10024920" y="393480"/>
           <a:ext cx="843480" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4718,9 +3790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
+      <xdr:colOff>253440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4730,19 +3802,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11960640" y="241200"/>
-          <a:ext cx="5136840" cy="393120"/>
+          <a:ext cx="5136480" cy="392760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4817,8 +3887,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="lg"/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4845,9 +3914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4857,19 +3926,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062160" y="1295280"/>
-          <a:ext cx="3863160" cy="418680"/>
+          <a:ext cx="3862800" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4916,9 +3983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>469800</xdr:colOff>
+      <xdr:colOff>469440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4928,19 +3995,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12087720" y="2158560"/>
-          <a:ext cx="5225760" cy="698400"/>
+          <a:ext cx="5225400" cy="698040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -4992,9 +4057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279000</xdr:colOff>
+      <xdr:colOff>278640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5003,20 +4068,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13899960" y="761760"/>
-          <a:ext cx="6530760" cy="5879880"/>
+          <a:off x="13899240" y="761760"/>
+          <a:ext cx="6531120" cy="5879520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -5266,127 +4329,108 @@
         <v>16</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -5397,145 +4441,145 @@
       <c r="B22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5595,25 +4639,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="n">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="C2" s="29" t="n">
+      <c r="C2" s="28" t="n">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -5637,7 +4681,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -5657,221 +4701,96 @@
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="32"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="12"/>
+      <c r="B3" s="32"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5884,11 +4803,11 @@
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -5900,11 +4819,11 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
@@ -5916,14 +4835,14 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,15 +4858,15 @@
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="39"/>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5979,81 +4898,81 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="41" t="n">
+      <c r="B1" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="n">
+      <c r="C1" s="39" t="n">
         <f aca="false">B1+1</f>
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="n">
+      <c r="D1" s="39" t="n">
         <f aca="false">C1+1</f>
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="n">
+      <c r="E1" s="39" t="n">
         <f aca="false">D1+1</f>
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="n">
+      <c r="F1" s="39" t="n">
         <f aca="false">E1+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6075,7 +4994,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6094,223 +5013,219 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="12"/>
+      <c r="H6" s="50" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="58" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="52" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="50" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6324,7 +5239,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="62"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -6340,19 +5255,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
@@ -6378,7 +5293,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="60"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6412,129 +5327,129 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="63"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="63"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="66"/>
+      <c r="B13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="63"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="67"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="67"/>
+      <c r="A48" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="67"/>
+      <c r="A57" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6579,7 +5494,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="369" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -6592,7 +5507,7 @@
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
       <c r="TU1" s="0"/>
       <c r="TV1" s="0"/>
       <c r="TW1" s="0"/>
@@ -7079,36 +5994,36 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="70" t="n">
+      <c r="B2" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="n">
+      <c r="C2" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="n">
+      <c r="D2" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="FU2" s="67"/>
-      <c r="FV2" s="67"/>
-      <c r="MU2" s="67"/>
-      <c r="MV2" s="67"/>
+      <c r="FU2" s="31"/>
+      <c r="FV2" s="31"/>
+      <c r="MU2" s="31"/>
+      <c r="MV2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="FQ3" s="67"/>
-      <c r="FR3" s="67"/>
-      <c r="MQ3" s="67"/>
-      <c r="MR3" s="67"/>
+      <c r="FQ3" s="31"/>
+      <c r="FR3" s="31"/>
+      <c r="MQ3" s="31"/>
+      <c r="MR3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="FV4" s="67"/>
-      <c r="FW4" s="67"/>
-      <c r="MV4" s="67"/>
-      <c r="MW4" s="67"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="FV4" s="31"/>
+      <c r="FW4" s="31"/>
+      <c r="MV4" s="31"/>
+      <c r="MW4" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7129,7 +6044,7 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AU1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -7146,42 +6061,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -7193,11 +6108,11 @@
       <c r="C3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -7207,598 +6122,598 @@
       <c r="C4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="74" t="n">
+      <c r="B39" s="70" t="n">
         <v>40</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="76"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="70" t="n">
+      <c r="C41" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="67"/>
+      <c r="H41" s="31"/>
       <c r="AW41" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="67"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="31"/>
       <c r="AW42" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
       <c r="AW43" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
       <c r="AW44" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
       <c r="AW45" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
       <c r="AW46" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
       <c r="AW47" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
       <c r="AW48" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
       <c r="AW49" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
       <c r="AW50" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
       <c r="AW51" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
       <c r="AW52" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
       <c r="AW53" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
       <c r="AW54" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
       <c r="AW55" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
       <c r="AW56" s="0" t="s">
         <v>77</v>
       </c>
@@ -8019,8 +6934,8 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="67"/>
-      <c r="B100" s="67" t="s">
+      <c r="A100" s="31"/>
+      <c r="B100" s="31" t="s">
         <v>77</v>
       </c>
       <c r="AW100" s="0" t="s">
